--- a/data/trans_orig/P43C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F889BF-C0B7-45AA-956E-1765B19B779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A42C15-C27C-40F9-ACB8-A544C5E9E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C2BA7D0-F007-40E0-BFCB-8C5AAF3014FE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{692E2B12-812F-4935-95F4-A4FF64F6400A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>59,39%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>60,12%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>68,73%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>53,44%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
@@ -245,61 +245,61 @@
     <t>51,42%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>48,58%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>62,14%</t>
+    <t>62,19%</t>
   </si>
   <si>
     <t>65,47%</t>
@@ -311,7 +311,7 @@
     <t>34,53%</t>
   </si>
   <si>
-    <t>37,86%</t>
+    <t>37,81%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -320,73 +320,73 @@
     <t>46,93%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>53,84%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>46,16%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9A694E-C633-4EE6-B81E-EDC3B30229F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F271FC-2C58-4104-BD88-558FF65A2710}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B670CC-A6C9-40B3-807F-0B9DEC60EE5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF58E42-7894-4B9F-ADD5-ECD55632C14F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99645E20-EF61-4DA1-9FC1-DF3A582A6B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F9354-DDA3-492D-BD2A-022708E668FE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D098DDBE-370C-4AAA-A3F8-4840CED4DB3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC68016-1771-4534-9BCD-8FC5D4E3C37C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A42C15-C27C-40F9-ACB8-A544C5E9E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADD2A73-3FCA-4B95-87E7-2E0BE47A36F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{692E2B12-812F-4935-95F4-A4FF64F6400A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEFF459F-84EE-41E7-9FD2-D9EAB09F0C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,10 +80,10 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>59,39%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>60,12%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>68,73%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,148 +170,148 @@
     <t>53,44%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
   </si>
   <si>
     <t>51,42%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>48,58%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F271FC-2C58-4104-BD88-558FF65A2710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBB4ECC-6DDC-4CD8-9950-66782229908B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF58E42-7894-4B9F-ADD5-ECD55632C14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C371BDD-A5BE-4AF3-8583-65B3F524A14F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F9354-DDA3-492D-BD2A-022708E668FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0348C-B4F7-40C2-81F1-E7900619318A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC68016-1771-4534-9BCD-8FC5D4E3C37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB76D7A6-68D2-4BEF-A8DC-254A98C676C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADD2A73-3FCA-4B95-87E7-2E0BE47A36F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B7A890-8406-49BA-9A7E-8EC0359BDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEFF459F-84EE-41E7-9FD2-D9EAB09F0C59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D58DACA4-155C-4E4B-ADD4-3179D563A59D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>59,39%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>60,12%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>68,73%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>53,44%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
@@ -245,73 +245,73 @@
     <t>51,42%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>48,58%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -320,73 +320,73 @@
     <t>46,93%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>53,84%</t>
   </si>
   <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>46,16%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBB4ECC-6DDC-4CD8-9950-66782229908B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555346F8-79B3-4C49-BC9A-FBAEE8799631}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C371BDD-A5BE-4AF3-8583-65B3F524A14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0149BC4-CC2C-40F1-8ADD-1DA1B2A6BEE0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0348C-B4F7-40C2-81F1-E7900619318A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5D7985-3797-406B-A300-4EC6E8B84641}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB76D7A6-68D2-4BEF-A8DC-254A98C676C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22842EE0-E45C-4079-8A9C-94C9FA4F40A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B7A890-8406-49BA-9A7E-8EC0359BDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7954C3-CA06-49A3-828B-2DBB9790E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D58DACA4-155C-4E4B-ADD4-3179D563A59D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3A08E20-40D8-462E-8561-358271FB0135}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -317,76 +317,76 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555346F8-79B3-4C49-BC9A-FBAEE8799631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9D5F1-B408-4424-B4B9-1EDAFDAC3429}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0149BC4-CC2C-40F1-8ADD-1DA1B2A6BEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239223E2-73B9-449A-86E7-2EE37D3DBC95}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2106,7 +2106,7 @@
         <v>2104</v>
       </c>
       <c r="I13" s="7">
-        <v>2290005</v>
+        <v>2290006</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>60</v>
@@ -2121,7 +2121,7 @@
         <v>2104</v>
       </c>
       <c r="N13" s="7">
-        <v>2290005</v>
+        <v>2290006</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>60</v>
@@ -2204,7 +2204,7 @@
         <v>3260</v>
       </c>
       <c r="I15" s="7">
-        <v>3518274</v>
+        <v>3518275</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2219,7 +2219,7 @@
         <v>3260</v>
       </c>
       <c r="N15" s="7">
-        <v>3518274</v>
+        <v>3518275</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5D7985-3797-406B-A300-4EC6E8B84641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57E5464-5F7B-404B-BA8C-65C5BD8A874C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22842EE0-E45C-4079-8A9C-94C9FA4F40A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D631B04-8BFF-41EB-B95E-438DD874C902}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3113,7 @@
         <v>532</v>
       </c>
       <c r="I4" s="7">
-        <v>315712</v>
+        <v>285746</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -3128,7 +3128,7 @@
         <v>532</v>
       </c>
       <c r="N4" s="7">
-        <v>315712</v>
+        <v>285746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>92</v>
@@ -3162,7 +3162,7 @@
         <v>623</v>
       </c>
       <c r="I5" s="7">
-        <v>356971</v>
+        <v>319237</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>95</v>
@@ -3177,7 +3177,7 @@
         <v>623</v>
       </c>
       <c r="N5" s="7">
-        <v>356971</v>
+        <v>319237</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>95</v>
@@ -3211,7 +3211,7 @@
         <v>1155</v>
       </c>
       <c r="I6" s="7">
-        <v>672683</v>
+        <v>604983</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3226,7 +3226,7 @@
         <v>1155</v>
       </c>
       <c r="N6" s="7">
-        <v>672683</v>
+        <v>604983</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3262,7 +3262,7 @@
         <v>1338</v>
       </c>
       <c r="I7" s="7">
-        <v>921702</v>
+        <v>935424</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>98</v>
@@ -3277,7 +3277,7 @@
         <v>1338</v>
       </c>
       <c r="N7" s="7">
-        <v>921702</v>
+        <v>935424</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>98</v>
@@ -3311,7 +3311,7 @@
         <v>789</v>
       </c>
       <c r="I8" s="7">
-        <v>790355</v>
+        <v>803600</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>101</v>
@@ -3326,7 +3326,7 @@
         <v>789</v>
       </c>
       <c r="N8" s="7">
-        <v>790355</v>
+        <v>803600</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>101</v>
@@ -3360,7 +3360,7 @@
         <v>2127</v>
       </c>
       <c r="I9" s="7">
-        <v>1712057</v>
+        <v>1739024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>2127</v>
       </c>
       <c r="N9" s="7">
-        <v>1712057</v>
+        <v>1739024</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3411,7 +3411,7 @@
         <v>543</v>
       </c>
       <c r="I10" s="7">
-        <v>372135</v>
+        <v>346682</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>104</v>
@@ -3426,7 +3426,7 @@
         <v>543</v>
       </c>
       <c r="N10" s="7">
-        <v>372135</v>
+        <v>346682</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>104</v>
@@ -3460,7 +3460,7 @@
         <v>156</v>
       </c>
       <c r="I11" s="7">
-        <v>124364</v>
+        <v>113302</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>107</v>
@@ -3475,7 +3475,7 @@
         <v>156</v>
       </c>
       <c r="N11" s="7">
-        <v>124364</v>
+        <v>113302</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>107</v>
@@ -3509,7 +3509,7 @@
         <v>699</v>
       </c>
       <c r="I12" s="7">
-        <v>496499</v>
+        <v>459984</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3524,7 +3524,7 @@
         <v>699</v>
       </c>
       <c r="N12" s="7">
-        <v>496499</v>
+        <v>459984</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3560,7 +3560,7 @@
         <v>2413</v>
       </c>
       <c r="I13" s="7">
-        <v>1609549</v>
+        <v>1567852</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>110</v>
@@ -3575,7 +3575,7 @@
         <v>2413</v>
       </c>
       <c r="N13" s="7">
-        <v>1609549</v>
+        <v>1567852</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>110</v>
@@ -3609,7 +3609,7 @@
         <v>1568</v>
       </c>
       <c r="I14" s="7">
-        <v>1271689</v>
+        <v>1236139</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>113</v>
@@ -3624,7 +3624,7 @@
         <v>1568</v>
       </c>
       <c r="N14" s="7">
-        <v>1271689</v>
+        <v>1236139</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>113</v>
@@ -3658,7 +3658,7 @@
         <v>3981</v>
       </c>
       <c r="I15" s="7">
-        <v>2881238</v>
+        <v>2803991</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3673,7 +3673,7 @@
         <v>3981</v>
       </c>
       <c r="N15" s="7">
-        <v>2881238</v>
+        <v>2803991</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
